--- a/guide.xlsx
+++ b/guide.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:A5"/>
+  <dimension ref="A1:AK100"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -447,10 +447,7021 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Test</t>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z5" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z10" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N11" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P11" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Q11" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="T11" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z20" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z25" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M28" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z30" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M32" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N32" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P32" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M33" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N33" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Q33" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="T33" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="W33" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y33" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M34" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z35" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H36" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K36" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M36" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N36" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P36" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K37" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H39" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J39" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K39" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N39" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P39" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z40" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K42" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M42" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H44" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z45" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H46" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K46" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M46" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N46" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P46" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Q46" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="T46" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G47" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H47" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J47" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H48" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K48" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M48" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N48" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P48" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H49" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J49" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K49" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M49" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z50" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H51" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J51" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K51" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M51" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N51" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P51" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Q51" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S51" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="T51" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="U51" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="V51" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="W51" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="X51" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y51" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Z51" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="AA51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB51" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="AC51" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="AD51" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE51" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="AF51" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="AG51" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH51" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H52" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J52" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H54" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J54" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z55" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G58" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H58" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J58" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K58" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M58" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N58" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P58" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Q58" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="T58" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="U58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G59" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H59" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J59" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K59" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M59" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N59" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P59" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Q59" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="S59" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z60" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G62" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H62" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K62" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M62" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N62" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P62" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G63" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H64" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J64" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K64" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M64" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N64" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P64" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z65" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G66" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G67" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H67" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K67" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M67" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N67" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P67" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Q67" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S67" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="T67" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="U67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="W67" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="X67" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y67" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Z67" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="AA67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB67" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="AC67" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="AD67" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE67" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="AF67" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="AG67" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH67" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="AI67" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="AJ67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK67" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E68" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G68" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H68" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J68" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K68" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M68" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G69" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z70" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G71" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H71" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K71" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M71" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N71" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P71" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G72" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H72" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J72" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G73" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H73" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K73" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M73" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N73" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Q73" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="S73" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="T73" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="U73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="W73" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="X73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y73" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z75" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G78" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H78" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K78" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M78" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N78" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="O78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P78" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Q78" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="R78" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="T78" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="U78" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V78" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="W78" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="X78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G79" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J79" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K79" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="L79" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M79" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N79" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="O79" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P79" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Q79" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="R79" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S79" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="T79" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="U79" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="V79" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z80" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E81" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G81" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H81" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J81" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E83" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H83" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K83" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="L83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G84" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z85" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E86" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G86" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H86" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K86" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="L86" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M86" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N86" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="O86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P86" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Q86" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="R86" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="S86" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E87" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G87" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H87" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J87" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K87" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="L87" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M87" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N87" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="O87" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P87" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E88" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G88" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H88" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K88" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="L88" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M88" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E89" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G89" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H89" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z90" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E91" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G91" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E92" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J92" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E93" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G93" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H93" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K93" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="L93" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M93" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z95" s="0" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>whitting</t>
+        </is>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E96" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G96" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H96" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J96" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K96" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="L96" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N96" s="0" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="O96" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P96" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Q96" s="0" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="R96" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S96" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="T96" s="0" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="U96" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>haddock</t>
+        </is>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E97" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G97" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>cod</t>
+        </is>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E98" s="0" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G98" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H98" s="0" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J98" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K98" s="0" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="L98" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M98" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="N98" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="O98" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P98" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Q98" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="R98" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S98" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="T98" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="U98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>pollock</t>
+        </is>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="E99" s="0" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G99" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H99" s="0" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J99" s="0" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>------------------</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>------------------</t>
         </is>
       </c>
     </row>
